--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juniormartinez/Desktop/Junior Alfredo/Proyectos/IMEF 2023/datawork/Google Trends Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BBB010-9F70-5648-812E-82C4B5851BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A859E6-5529-5F48-877B-06F6807B517F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26880" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="26880" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$BJ$237</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
   <si>
     <t>fecha</t>
   </si>
@@ -315,9 +318,6 @@
   </si>
   <si>
     <t>2010-09</t>
-  </si>
-  <si>
-    <t>&lt;1</t>
   </si>
   <si>
     <t>2010-10</t>
@@ -1200,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ237"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="263" workbookViewId="0">
-      <selection activeCell="B240" sqref="B240"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="BH12" sqref="BH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1231,79 +1231,79 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>6</v>
@@ -1315,103 +1315,103 @@
         <v>8</v>
       </c>
       <c r="AD1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="AZ1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="BA1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="BB1" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="BE1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="BF1" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BG1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="BH1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="BI1" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16596,8 +16596,8 @@
       <c r="AU82" s="1">
         <v>4</v>
       </c>
-      <c r="AV82" s="1" t="s">
-        <v>93</v>
+      <c r="AV82" s="1">
+        <v>1</v>
       </c>
       <c r="AW82" s="1">
         <v>25</v>
@@ -16644,7 +16644,7 @@
     </row>
     <row r="83" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B83" s="1">
         <v>4.0199999999999996</v>
@@ -16832,7 +16832,7 @@
     </row>
     <row r="84" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B84" s="1">
         <v>4.32</v>
@@ -17020,7 +17020,7 @@
     </row>
     <row r="85" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B85" s="1">
         <v>4.4000000000000004</v>
@@ -17208,7 +17208,7 @@
     </row>
     <row r="86" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B86" s="1">
         <v>3.78</v>
@@ -17396,7 +17396,7 @@
     </row>
     <row r="87" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B87" s="1">
         <v>3.57</v>
@@ -17584,7 +17584,7 @@
     </row>
     <row r="88" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B88" s="1">
         <v>3.04</v>
@@ -17772,7 +17772,7 @@
     </row>
     <row r="89" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B89" s="1">
         <v>3.36</v>
@@ -17960,7 +17960,7 @@
     </row>
     <row r="90" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B90" s="1">
         <v>3.25</v>
@@ -18013,8 +18013,8 @@
       <c r="R90" s="1">
         <v>17</v>
       </c>
-      <c r="S90" s="1" t="s">
-        <v>93</v>
+      <c r="S90" s="1">
+        <v>1</v>
       </c>
       <c r="T90" s="1">
         <v>9</v>
@@ -18148,7 +18148,7 @@
     </row>
     <row r="91" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B91" s="1">
         <v>3.28</v>
@@ -18336,7 +18336,7 @@
     </row>
     <row r="92" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B92" s="1">
         <v>3.55</v>
@@ -18524,7 +18524,7 @@
     </row>
     <row r="93" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B93" s="1">
         <v>3.42</v>
@@ -18712,7 +18712,7 @@
     </row>
     <row r="94" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B94" s="1">
         <v>3.14</v>
@@ -18900,7 +18900,7 @@
     </row>
     <row r="95" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B95" s="1">
         <v>3.2</v>
@@ -19088,7 +19088,7 @@
     </row>
     <row r="96" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B96" s="1">
         <v>3.48</v>
@@ -19276,7 +19276,7 @@
     </row>
     <row r="97" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B97" s="1">
         <v>3.82</v>
@@ -19464,7 +19464,7 @@
     </row>
     <row r="98" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B98" s="1">
         <v>4.05</v>
@@ -19652,7 +19652,7 @@
     </row>
     <row r="99" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B99" s="1">
         <v>3.87</v>
@@ -19705,8 +19705,8 @@
       <c r="R99" s="1">
         <v>18</v>
       </c>
-      <c r="S99" s="1" t="s">
-        <v>93</v>
+      <c r="S99" s="1">
+        <v>1</v>
       </c>
       <c r="T99" s="1">
         <v>9</v>
@@ -19840,7 +19840,7 @@
     </row>
     <row r="100" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B100" s="1">
         <v>3.73</v>
@@ -20028,7 +20028,7 @@
     </row>
     <row r="101" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B101" s="1">
         <v>3.41</v>
@@ -20081,8 +20081,8 @@
       <c r="R101" s="1">
         <v>16</v>
       </c>
-      <c r="S101" s="1" t="s">
-        <v>93</v>
+      <c r="S101" s="1">
+        <v>1</v>
       </c>
       <c r="T101" s="1">
         <v>10</v>
@@ -20216,7 +20216,7 @@
     </row>
     <row r="102" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B102" s="1">
         <v>3.85</v>
@@ -20404,7 +20404,7 @@
     </row>
     <row r="103" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B103" s="1">
         <v>4.34</v>
@@ -20592,7 +20592,7 @@
     </row>
     <row r="104" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B104" s="1">
         <v>4.42</v>
@@ -20645,8 +20645,8 @@
       <c r="R104" s="1">
         <v>8</v>
       </c>
-      <c r="S104" s="1" t="s">
-        <v>93</v>
+      <c r="S104" s="1">
+        <v>1</v>
       </c>
       <c r="T104" s="1">
         <v>13</v>
@@ -20780,7 +20780,7 @@
     </row>
     <row r="105" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B105" s="1">
         <v>4.57</v>
@@ -20833,8 +20833,8 @@
       <c r="R105" s="1">
         <v>12</v>
       </c>
-      <c r="S105" s="1" t="s">
-        <v>93</v>
+      <c r="S105" s="1">
+        <v>1</v>
       </c>
       <c r="T105" s="1">
         <v>14</v>
@@ -20968,7 +20968,7 @@
     </row>
     <row r="106" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B106" s="1">
         <v>4.7699999999999996</v>
@@ -21156,7 +21156,7 @@
     </row>
     <row r="107" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B107" s="1">
         <v>4.5999999999999996</v>
@@ -21344,7 +21344,7 @@
     </row>
     <row r="108" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B108" s="1">
         <v>4.18</v>
@@ -21397,8 +21397,8 @@
       <c r="R108" s="1">
         <v>14</v>
       </c>
-      <c r="S108" s="1" t="s">
-        <v>93</v>
+      <c r="S108" s="1">
+        <v>1</v>
       </c>
       <c r="T108" s="1">
         <v>12</v>
@@ -21532,7 +21532,7 @@
     </row>
     <row r="109" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B109" s="1">
         <v>3.57</v>
@@ -21720,7 +21720,7 @@
     </row>
     <row r="110" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B110" s="1">
         <v>3.25</v>
@@ -21908,7 +21908,7 @@
     </row>
     <row r="111" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B111" s="1">
         <v>3.55</v>
@@ -21961,8 +21961,8 @@
       <c r="R111" s="1">
         <v>13</v>
       </c>
-      <c r="S111" s="1" t="s">
-        <v>93</v>
+      <c r="S111" s="1">
+        <v>1</v>
       </c>
       <c r="T111" s="1">
         <v>12</v>
@@ -22096,7 +22096,7 @@
     </row>
     <row r="112" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B112" s="1">
         <v>4.25</v>
@@ -22284,7 +22284,7 @@
     </row>
     <row r="113" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B113" s="1">
         <v>4.6500000000000004</v>
@@ -22472,7 +22472,7 @@
     </row>
     <row r="114" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B114" s="1">
         <v>4.63</v>
@@ -22660,7 +22660,7 @@
     </row>
     <row r="115" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B115" s="1">
         <v>4.09</v>
@@ -22848,7 +22848,7 @@
     </row>
     <row r="116" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B116" s="1">
         <v>3.47</v>
@@ -23036,7 +23036,7 @@
     </row>
     <row r="117" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B117" s="1">
         <v>3.46</v>
@@ -23224,7 +23224,7 @@
     </row>
     <row r="118" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B118" s="1">
         <v>3.39</v>
@@ -23412,7 +23412,7 @@
     </row>
     <row r="119" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B119" s="1">
         <v>3.36</v>
@@ -23600,7 +23600,7 @@
     </row>
     <row r="120" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B120" s="1">
         <v>3.62</v>
@@ -23788,7 +23788,7 @@
     </row>
     <row r="121" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B121" s="1">
         <v>3.97</v>
@@ -23976,7 +23976,7 @@
     </row>
     <row r="122" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B122" s="1">
         <v>4.4800000000000004</v>
@@ -24164,7 +24164,7 @@
     </row>
     <row r="123" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B123" s="1">
         <v>4.2300000000000004</v>
@@ -24352,7 +24352,7 @@
     </row>
     <row r="124" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B124" s="1">
         <v>3.76</v>
@@ -24540,7 +24540,7 @@
     </row>
     <row r="125" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B125" s="1">
         <v>3.5</v>
@@ -24728,7 +24728,7 @@
     </row>
     <row r="126" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B126" s="1">
         <v>3.51</v>
@@ -24781,8 +24781,8 @@
       <c r="R126" s="1">
         <v>14</v>
       </c>
-      <c r="S126" s="1" t="s">
-        <v>93</v>
+      <c r="S126" s="1">
+        <v>1</v>
       </c>
       <c r="T126" s="1">
         <v>16</v>
@@ -24916,7 +24916,7 @@
     </row>
     <row r="127" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B127" s="1">
         <v>3.75</v>
@@ -25104,7 +25104,7 @@
     </row>
     <row r="128" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B128" s="1">
         <v>4.07</v>
@@ -25292,7 +25292,7 @@
     </row>
     <row r="129" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B129" s="1">
         <v>4.1500000000000004</v>
@@ -25480,7 +25480,7 @@
     </row>
     <row r="130" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B130" s="1">
         <v>4.22</v>
@@ -25668,7 +25668,7 @@
     </row>
     <row r="131" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B131" s="1">
         <v>4.3</v>
@@ -25856,7 +25856,7 @@
     </row>
     <row r="132" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B132" s="1">
         <v>4.17</v>
@@ -26044,7 +26044,7 @@
     </row>
     <row r="133" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B133" s="1">
         <v>4.08</v>
@@ -26232,7 +26232,7 @@
     </row>
     <row r="134" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B134" s="1">
         <v>3.07</v>
@@ -26420,7 +26420,7 @@
     </row>
     <row r="135" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B135" s="1">
         <v>3</v>
@@ -26608,7 +26608,7 @@
     </row>
     <row r="136" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B136" s="1">
         <v>3.14</v>
@@ -26796,7 +26796,7 @@
     </row>
     <row r="137" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B137" s="1">
         <v>3.06</v>
@@ -26984,7 +26984,7 @@
     </row>
     <row r="138" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B138" s="1">
         <v>2.88</v>
@@ -27172,7 +27172,7 @@
     </row>
     <row r="139" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B139" s="1">
         <v>2.87</v>
@@ -27360,7 +27360,7 @@
     </row>
     <row r="140" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B140" s="1">
         <v>2.74</v>
@@ -27548,7 +27548,7 @@
     </row>
     <row r="141" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B141" s="1">
         <v>2.59</v>
@@ -27736,7 +27736,7 @@
     </row>
     <row r="142" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B142" s="1">
         <v>2.52</v>
@@ -27891,8 +27891,8 @@
       <c r="AZ142" s="1">
         <v>72</v>
       </c>
-      <c r="BA142" s="1" t="s">
-        <v>93</v>
+      <c r="BA142" s="1">
+        <v>1</v>
       </c>
       <c r="BB142" s="1">
         <v>23</v>
@@ -27924,7 +27924,7 @@
     </row>
     <row r="143" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B143" s="1">
         <v>2.48</v>
@@ -28112,7 +28112,7 @@
     </row>
     <row r="144" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B144" s="1">
         <v>2.21</v>
@@ -28300,7 +28300,7 @@
     </row>
     <row r="145" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B145" s="1">
         <v>2.13</v>
@@ -28488,7 +28488,7 @@
     </row>
     <row r="146" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B146" s="1">
         <v>2.61</v>
@@ -28676,7 +28676,7 @@
     </row>
     <row r="147" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B147" s="1">
         <v>2.87</v>
@@ -28864,7 +28864,7 @@
     </row>
     <row r="148" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B148" s="1">
         <v>2.6</v>
@@ -29052,7 +29052,7 @@
     </row>
     <row r="149" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B149" s="1">
         <v>2.54</v>
@@ -29240,7 +29240,7 @@
     </row>
     <row r="150" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B150" s="1">
         <v>2.6</v>
@@ -29428,7 +29428,7 @@
     </row>
     <row r="151" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B151" s="1">
         <v>2.54</v>
@@ -29616,7 +29616,7 @@
     </row>
     <row r="152" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B152" s="1">
         <v>2.65</v>
@@ -29804,7 +29804,7 @@
     </row>
     <row r="153" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B153" s="1">
         <v>2.73</v>
@@ -29992,7 +29992,7 @@
     </row>
     <row r="154" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B154" s="1">
         <v>2.97</v>
@@ -30147,8 +30147,8 @@
       <c r="AZ154" s="1">
         <v>71</v>
       </c>
-      <c r="BA154" s="1" t="s">
-        <v>93</v>
+      <c r="BA154" s="1">
+        <v>1</v>
       </c>
       <c r="BB154" s="1">
         <v>21</v>
@@ -30180,7 +30180,7 @@
     </row>
     <row r="155" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B155" s="1">
         <v>3.06</v>
@@ -30368,7 +30368,7 @@
     </row>
     <row r="156" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B156" s="1">
         <v>3.31</v>
@@ -30556,7 +30556,7 @@
     </row>
     <row r="157" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B157" s="1">
         <v>3.36</v>
@@ -30744,7 +30744,7 @@
     </row>
     <row r="158" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B158" s="1">
         <v>4.72</v>
@@ -30932,7 +30932,7 @@
     </row>
     <row r="159" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B159" s="1">
         <v>4.8600000000000003</v>
@@ -31120,7 +31120,7 @@
     </row>
     <row r="160" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B160" s="1">
         <v>5.35</v>
@@ -31308,7 +31308,7 @@
     </row>
     <row r="161" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B161" s="1">
         <v>5.82</v>
@@ -31496,7 +31496,7 @@
     </row>
     <row r="162" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B162" s="1">
         <v>6.16</v>
@@ -31684,7 +31684,7 @@
     </row>
     <row r="163" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B163" s="1">
         <v>6.31</v>
@@ -31872,7 +31872,7 @@
     </row>
     <row r="164" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B164" s="1">
         <v>6.44</v>
@@ -32060,7 +32060,7 @@
     </row>
     <row r="165" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B165" s="1">
         <v>6.66</v>
@@ -32248,7 +32248,7 @@
     </row>
     <row r="166" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B166" s="1">
         <v>6.35</v>
@@ -32436,7 +32436,7 @@
     </row>
     <row r="167" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B167" s="1">
         <v>6.37</v>
@@ -32624,7 +32624,7 @@
     </row>
     <row r="168" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B168" s="1">
         <v>6.63</v>
@@ -32812,7 +32812,7 @@
     </row>
     <row r="169" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B169" s="1">
         <v>6.77</v>
@@ -33000,7 +33000,7 @@
     </row>
     <row r="170" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B170" s="1">
         <v>5.55</v>
@@ -33188,7 +33188,7 @@
     </row>
     <row r="171" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B171" s="1">
         <v>5.34</v>
@@ -33376,7 +33376,7 @@
     </row>
     <row r="172" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B172" s="1">
         <v>5.04</v>
@@ -33564,7 +33564,7 @@
     </row>
     <row r="173" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B173" s="1">
         <v>4.55</v>
@@ -33752,7 +33752,7 @@
     </row>
     <row r="174" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B174" s="1">
         <v>4.51</v>
@@ -33940,7 +33940,7 @@
     </row>
     <row r="175" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B175" s="1">
         <v>4.6500000000000004</v>
@@ -34128,7 +34128,7 @@
     </row>
     <row r="176" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B176" s="1">
         <v>4.8099999999999996</v>
@@ -34316,7 +34316,7 @@
     </row>
     <row r="177" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B177" s="1">
         <v>4.9000000000000004</v>
@@ -34504,7 +34504,7 @@
     </row>
     <row r="178" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B178" s="1">
         <v>5.0199999999999996</v>
@@ -34692,7 +34692,7 @@
     </row>
     <row r="179" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B179" s="1">
         <v>4.9000000000000004</v>
@@ -34880,7 +34880,7 @@
     </row>
     <row r="180" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B180" s="1">
         <v>4.72</v>
@@ -35068,7 +35068,7 @@
     </row>
     <row r="181" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B181" s="1">
         <v>4.83</v>
@@ -35256,7 +35256,7 @@
     </row>
     <row r="182" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B182" s="1">
         <v>4.37</v>
@@ -35444,7 +35444,7 @@
     </row>
     <row r="183" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B183" s="1">
         <v>3.94</v>
@@ -35632,7 +35632,7 @@
     </row>
     <row r="184" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B184" s="1">
         <v>4</v>
@@ -35820,7 +35820,7 @@
     </row>
     <row r="185" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B185" s="1">
         <v>4.41</v>
@@ -36008,7 +36008,7 @@
     </row>
     <row r="186" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B186" s="1">
         <v>4.28</v>
@@ -36196,7 +36196,7 @@
     </row>
     <row r="187" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B187" s="1">
         <v>3.95</v>
@@ -36384,7 +36384,7 @@
     </row>
     <row r="188" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B188" s="1">
         <v>3.78</v>
@@ -36572,7 +36572,7 @@
     </row>
     <row r="189" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B189" s="1">
         <v>3.16</v>
@@ -36760,7 +36760,7 @@
     </row>
     <row r="190" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B190" s="1">
         <v>3</v>
@@ -36948,7 +36948,7 @@
     </row>
     <row r="191" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B191" s="1">
         <v>3.02</v>
@@ -37136,7 +37136,7 @@
     </row>
     <row r="192" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B192" s="1">
         <v>2.97</v>
@@ -37324,7 +37324,7 @@
     </row>
     <row r="193" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B193" s="1">
         <v>2.83</v>
@@ -37512,7 +37512,7 @@
     </row>
     <row r="194" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B194" s="1">
         <v>3.24</v>
@@ -37700,7 +37700,7 @@
     </row>
     <row r="195" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B195" s="1">
         <v>3.7</v>
@@ -37888,7 +37888,7 @@
     </row>
     <row r="196" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B196" s="1">
         <v>3.25</v>
@@ -38076,7 +38076,7 @@
     </row>
     <row r="197" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B197" s="1">
         <v>2.15</v>
@@ -38264,7 +38264,7 @@
     </row>
     <row r="198" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B198" s="1">
         <v>2.84</v>
@@ -38452,7 +38452,7 @@
     </row>
     <row r="199" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B199" s="1">
         <v>3.33</v>
@@ -38640,7 +38640,7 @@
     </row>
     <row r="200" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B200" s="1">
         <v>3.62</v>
@@ -38828,7 +38828,7 @@
     </row>
     <row r="201" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B201" s="1">
         <v>4.05</v>
@@ -39016,7 +39016,7 @@
     </row>
     <row r="202" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B202" s="1">
         <v>4.01</v>
@@ -39204,7 +39204,7 @@
     </row>
     <row r="203" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B203" s="1">
         <v>4.09</v>
@@ -39392,7 +39392,7 @@
     </row>
     <row r="204" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B204" s="1">
         <v>3.33</v>
@@ -39580,7 +39580,7 @@
     </row>
     <row r="205" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B205" s="1">
         <v>3.15</v>
@@ -39768,7 +39768,7 @@
     </row>
     <row r="206" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B206" s="1">
         <v>3.54</v>
@@ -39956,7 +39956,7 @@
     </row>
     <row r="207" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B207" s="1">
         <v>3.76</v>
@@ -40144,7 +40144,7 @@
     </row>
     <row r="208" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B208" s="1">
         <v>4.67</v>
@@ -40332,7 +40332,7 @@
     </row>
     <row r="209" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B209" s="1">
         <v>6.08</v>
@@ -40520,7 +40520,7 @@
     </row>
     <row r="210" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B210" s="1">
         <v>5.89</v>
@@ -40708,7 +40708,7 @@
     </row>
     <row r="211" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B211" s="1">
         <v>5.88</v>
@@ -40896,7 +40896,7 @@
     </row>
     <row r="212" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B212" s="1">
         <v>5.81</v>
@@ -41084,7 +41084,7 @@
     </row>
     <row r="213" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B213" s="1">
         <v>5.59</v>
@@ -41272,7 +41272,7 @@
     </row>
     <row r="214" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B214" s="1">
         <v>6</v>
@@ -41460,7 +41460,7 @@
     </row>
     <row r="215" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B215" s="1">
         <v>6.24</v>
@@ -41648,7 +41648,7 @@
     </row>
     <row r="216" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B216" s="1">
         <v>7.37</v>
@@ -41836,7 +41836,7 @@
     </row>
     <row r="217" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B217" s="1">
         <v>7.36</v>
@@ -42024,7 +42024,7 @@
     </row>
     <row r="218" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B218" s="1">
         <v>7.07</v>
@@ -42212,7 +42212,7 @@
     </row>
     <row r="219" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B219" s="1">
         <v>7.28</v>
@@ -42400,7 +42400,7 @@
     </row>
     <row r="220" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B220" s="1">
         <v>7.45</v>
@@ -42588,7 +42588,7 @@
     </row>
     <row r="221" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B221" s="1">
         <v>7.68</v>
@@ -42776,7 +42776,7 @@
     </row>
     <row r="222" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B222" s="1">
         <v>7.65</v>
@@ -42964,7 +42964,7 @@
     </row>
     <row r="223" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B223" s="1">
         <v>7.99</v>
@@ -43152,7 +43152,7 @@
     </row>
     <row r="224" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B224" s="1">
         <v>8.15</v>
@@ -43340,7 +43340,7 @@
     </row>
     <row r="225" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B225" s="1">
         <v>8.6999999999999993</v>
@@ -43528,7 +43528,7 @@
     </row>
     <row r="226" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B226" s="1">
         <v>8.6999999999999993</v>
@@ -43716,7 +43716,7 @@
     </row>
     <row r="227" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B227" s="1">
         <v>8.41</v>
@@ -43904,7 +43904,7 @@
     </row>
     <row r="228" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B228" s="1">
         <v>7.8</v>
@@ -44092,7 +44092,7 @@
     </row>
     <row r="229" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B229" s="1">
         <v>7.82</v>
@@ -44280,7 +44280,7 @@
     </row>
     <row r="230" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B230" s="1">
         <v>7.91</v>
@@ -44468,7 +44468,7 @@
     </row>
     <row r="231" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B231" s="1">
         <v>7.62</v>
@@ -44656,7 +44656,7 @@
     </row>
     <row r="232" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B232" s="1">
         <v>6.85</v>
@@ -44844,7 +44844,7 @@
     </row>
     <row r="233" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B233" s="1">
         <v>6.25</v>
@@ -45032,7 +45032,7 @@
     </row>
     <row r="234" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B234" s="1">
         <v>5.84</v>
@@ -45220,7 +45220,7 @@
     </row>
     <row r="235" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B235" s="1">
         <v>5.0599999999999996</v>
@@ -45408,7 +45408,7 @@
     </row>
     <row r="236" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B236" s="1">
         <v>4.79</v>
@@ -45596,7 +45596,7 @@
     </row>
     <row r="237" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B237" s="1">
         <v>4.6399999999999997</v>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juniormartinez/Desktop/Junior Alfredo/Proyectos/IMEF 2023/datawork/Google Trends Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C333F46-A4AD-A144-BDC9-5ADD23B66E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBF1F79-E762-CE41-ABD6-6B5F602D353B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26880" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="331">
   <si>
     <t>fecha</t>
   </si>
@@ -935,9 +935,6 @@
     <t>tipo_de_cambio_bm</t>
   </si>
   <si>
-    <t>((BL2-MIN($BL$2:$BL$237))/(MAX($BL$2:$BL$237)-MIN($BL$2:$BL$237)))*100</t>
-  </si>
-  <si>
     <t>cetes_bm</t>
   </si>
   <si>
@@ -1346,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XEY238"/>
+  <dimension ref="A1:EA238"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="CG1" zoomScale="157" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="CK1" sqref="CK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1385,7 +1382,7 @@
     <col min="97" max="97" width="14.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:131 16379:16379" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:131" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1579,106 +1576,106 @@
         <v>297</v>
       </c>
       <c r="BM1" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="BN1" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="BN1" s="7" t="s">
+      <c r="BO1" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="BO1" s="7" t="s">
+      <c r="BP1" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="BP1" s="7" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="BQ1" s="7" t="s">
+      <c r="BR1" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="BR1" s="7" t="s">
+      <c r="BS1" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="BS1" s="7" t="s">
+      <c r="BT1" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="BU1" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="BT1" s="7" t="s">
+      <c r="BV1" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="BU1" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="BV1" s="7" t="s">
+      <c r="BW1" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="BX1" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="BW1" s="7" t="s">
+      <c r="BY1" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="BZ1" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="CA1" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="CB1" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="CC1" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="CD1" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="CE1" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="CF1" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="CG1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="BX1" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="BY1" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="BZ1" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="CA1" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="CB1" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="CC1" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="CD1" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="CE1" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="CF1" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="CJ1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CL1" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="CL1" s="3" t="s">
+      <c r="CM1" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="CM1" s="3" t="s">
+      <c r="CN1" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="CN1" s="3" t="s">
+      <c r="CO1" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="CO1" s="3" t="s">
+      <c r="CP1" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="CP1" s="3" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="CQ1" s="3" t="s">
+      <c r="CR1" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="CR1" s="3" t="s">
+      <c r="CS1" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="CS1" s="10" t="s">
-        <v>331</v>
-      </c>
     </row>
-    <row r="2" spans="1:131 16379:16379" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:131" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2005,7 +2002,7 @@
       <c r="DZ2" s="8"/>
       <c r="EA2" s="8"/>
     </row>
-    <row r="3" spans="1:131 16379:16379" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:131" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2332,7 +2329,7 @@
       <c r="DZ3" s="8"/>
       <c r="EA3" s="8"/>
     </row>
-    <row r="4" spans="1:131 16379:16379" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:131" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2659,7 +2656,7 @@
       <c r="DZ4" s="8"/>
       <c r="EA4" s="8"/>
     </row>
-    <row r="5" spans="1:131 16379:16379" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:131" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2985,11 +2982,8 @@
       <c r="DY5" s="8"/>
       <c r="DZ5" s="8"/>
       <c r="EA5" s="8"/>
-      <c r="XEY5" t="s">
-        <v>298</v>
-      </c>
     </row>
-    <row r="6" spans="1:131 16379:16379" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:131" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -3316,7 +3310,7 @@
       <c r="DZ6" s="8"/>
       <c r="EA6" s="8"/>
     </row>
-    <row r="7" spans="1:131 16379:16379" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:131" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -3643,7 +3637,7 @@
       <c r="DZ7" s="8"/>
       <c r="EA7" s="8"/>
     </row>
-    <row r="8" spans="1:131 16379:16379" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:131" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -3970,7 +3964,7 @@
       <c r="DZ8" s="8"/>
       <c r="EA8" s="8"/>
     </row>
-    <row r="9" spans="1:131 16379:16379" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:131" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -4297,7 +4291,7 @@
       <c r="DZ9" s="8"/>
       <c r="EA9" s="8"/>
     </row>
-    <row r="10" spans="1:131 16379:16379" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:131" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4624,7 +4618,7 @@
       <c r="DZ10" s="8"/>
       <c r="EA10" s="8"/>
     </row>
-    <row r="11" spans="1:131 16379:16379" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:131" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -4951,7 +4945,7 @@
       <c r="DZ11" s="8"/>
       <c r="EA11" s="8"/>
     </row>
-    <row r="12" spans="1:131 16379:16379" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:131" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -5278,7 +5272,7 @@
       <c r="DZ12" s="8"/>
       <c r="EA12" s="8"/>
     </row>
-    <row r="13" spans="1:131 16379:16379" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:131" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -5605,7 +5599,7 @@
       <c r="DZ13" s="8"/>
       <c r="EA13" s="8"/>
     </row>
-    <row r="14" spans="1:131 16379:16379" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:131" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -5932,7 +5926,7 @@
       <c r="DZ14" s="8"/>
       <c r="EA14" s="8"/>
     </row>
-    <row r="15" spans="1:131 16379:16379" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:131" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -6259,7 +6253,7 @@
       <c r="DZ15" s="8"/>
       <c r="EA15" s="8"/>
     </row>
-    <row r="16" spans="1:131 16379:16379" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:131" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juniormartinez/Desktop/Junior Alfredo/Proyectos/IMEF 2023/datawork/Google Trends Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBF1F79-E762-CE41-ABD6-6B5F602D353B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231FF0DB-AAEC-B241-88D5-6F3C1475FBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="26880" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1345,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EA238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CG1" zoomScale="157" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="CK1" sqref="CK1"/>
+    <sheetView tabSelected="1" topLeftCell="BM1" zoomScale="157" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="BU6" sqref="BU6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1369,12 +1369,14 @@
     <col min="36" max="52" width="10.83203125" customWidth="1"/>
     <col min="53" max="53" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="54" max="62" width="10.83203125" customWidth="1"/>
-    <col min="63" max="63" width="16.1640625" customWidth="1"/>
-    <col min="64" max="64" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="66" max="70" width="14.5" style="5"/>
-    <col min="71" max="71" width="18.5" style="5" customWidth="1"/>
-    <col min="72" max="73" width="14.5" style="5"/>
+    <col min="63" max="63" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="66" max="69" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="21.33203125" style="5" customWidth="1"/>
+    <col min="72" max="72" width="14.5" style="5"/>
+    <col min="73" max="73" width="21.5" style="5" customWidth="1"/>
     <col min="74" max="74" width="22.83203125" style="5" customWidth="1"/>
     <col min="75" max="75" width="14.5" style="5"/>
     <col min="76" max="76" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
